--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Xuất kho/Tháng 02/XKSX_VoHopRFID_070226.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Xuất kho/Tháng 02/XKSX_VoHopRFID_070226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất Nhập Kho 2026\Xuất kho\Tháng 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F460BD1-F6D3-4F89-80A0-6A65ECBEABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70622A6-B0BB-4D65-98FB-33D35AA897C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,6 +493,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,21 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -979,7 +979,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,66 +996,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -1131,12 +1131,12 @@
       <c r="C10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="24">
         <v>800</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="22"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="44"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="22" t="s">
         <v>28</v>
       </c>
@@ -1182,40 +1182,40 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="47"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -1268,22 +1268,22 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1309,6 +1309,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
@@ -1322,12 +1328,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
